--- a/History/jailbroken-swamp.xlsx
+++ b/History/jailbroken-swamp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3D3731-2538-4FB8-A052-C092BC0E2A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15174844-5639-4CB5-83BA-AB27BF4CFA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10750" yWindow="0" windowWidth="8540" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -318,6 +318,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -601,32 +602,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="56.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="100.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="106.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="102.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="61.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.77734375" style="4"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="128.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="100.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="106.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="102.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="61.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -720,7 +721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -767,7 +768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
@@ -814,7 +815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
@@ -861,7 +862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -908,7 +909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -955,7 +956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1124,10 +1125,10 @@
       <c r="I11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1149,9 +1150,7 @@
     <hyperlink ref="L3" r:id="rId2" xr:uid="{4C4A0DA3-F705-4E78-B7CB-A4B0AE3B2045}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{F914FA3F-B5EA-4751-85E3-2A80AAC2ACFD}"/>
     <hyperlink ref="L5" r:id="rId4" xr:uid="{5D089D6B-93C4-45E4-BA7A-1CBAE1B15D73}"/>
-    <hyperlink ref="K11" r:id="rId5" xr:uid="{591DD799-9F23-41DB-B1D0-BBAC70BA467B}"/>
-    <hyperlink ref="J11" r:id="rId6" xr:uid="{9925526B-EDA1-4983-A3B7-C9E55C01053D}"/>
-    <hyperlink ref="N11" r:id="rId7" xr:uid="{963976C6-32D0-4124-BE1E-EE60625BE1B9}"/>
+    <hyperlink ref="N11" r:id="rId5" xr:uid="{963976C6-32D0-4124-BE1E-EE60625BE1B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
